--- a/Batch_WA.xlsx
+++ b/Batch_WA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Batch_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B747963C-A254-46C7-8E5C-752B0E86B2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA580846-A445-4AFB-AB52-3F05A8F6278F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="25215" windowHeight="15600" tabRatio="754" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ImpLink" sheetId="1" r:id="rId1"/>
@@ -1442,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -2759,7 +2759,7 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,7 +3188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABB2D8A-7493-4FF1-81E3-31411FB883B6}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
